--- a/자료정리/데킬라.xlsx
+++ b/자료정리/데킬라.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\졸작\자료정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\졸작1\자료정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가니쉬는 투우사를 상징한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>build</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,13 +475,17 @@
   </si>
   <si>
     <t>사람들이 처음 만날 때 어색한 분위기를 깰 수 있게 도와 주는 것 또는 그러한 사람을 이야기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가니쉬는 투우사를 상징한다.  /https://youtube.com/shorts/keGoggK8kFQ?si=D7vxZpmvyRXqRYIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -976,19 +976,19 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1005,7 +1005,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1072,41 +1072,41 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -1120,125 +1120,125 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
@@ -1253,22 +1253,22 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
